--- a/TACKY.xlsx
+++ b/TACKY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TACKY" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="150">
   <si>
     <t xml:space="preserve">Macro</t>
   </si>
@@ -340,60 +340,60 @@
     <t xml:space="preserve">PC</t>
   </si>
   <si>
+    <t xml:space="preserve">pre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Op/Word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RegFile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataMem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jp8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immediate Jumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RegFile+DataMem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jz8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jnz8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cf8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immediate Reg. Load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ci8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump</t>
+  </si>
+  <si>
     <t xml:space="preserve">2 Op/Word</t>
   </si>
   <si>
-    <t xml:space="preserve">pre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Op/Word</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RegFile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System Call</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataMem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jp8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Immediate Jumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RegFile+DataMem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jz8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jnz8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cf8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Immediate Reg. Load</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ci8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump</t>
-  </si>
-  <si>
     <t xml:space="preserve">st</t>
   </si>
   <si>
@@ -406,9 +406,6 @@
     <t xml:space="preserve">Conversion</t>
   </si>
   <si>
-    <t xml:space="preserve">Register/Memory</t>
-  </si>
-  <si>
     <t xml:space="preserve">a2r</t>
   </si>
   <si>
@@ -463,22 +460,19 @@
     <t xml:space="preserve">or</t>
   </si>
   <si>
-    <t xml:space="preserve">Reg + Memory</t>
+    <t xml:space="preserve">Memory</t>
   </si>
   <si>
     <t xml:space="preserve">Jumps</t>
   </si>
   <si>
-    <t xml:space="preserve">Reg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory</t>
+    <t xml:space="preserve">Reg. Load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etc.</t>
   </si>
   <si>
     <t xml:space="preserve">Immediate Load</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etc.</t>
   </si>
 </sst>
 </file>
@@ -623,7 +617,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -672,6 +666,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -704,19 +702,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1335,7 +1325,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1382,16 +1372,15 @@
       <c r="E2" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>103</v>
       </c>
+      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="J2" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>105</v>
-      </c>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="n">
@@ -1409,17 +1398,17 @@
       <c r="E3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1438,15 +1427,15 @@
       <c r="E4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="6"/>
+      <c r="J4" s="16" t="s">
         <v>111</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="J4" s="15" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,15 +1454,15 @@
       <c r="E5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6"/>
+      <c r="J5" s="17" t="s">
         <v>114</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="J5" s="16" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,8 +1481,8 @@
       <c r="E6" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>116</v>
+      <c r="F6" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -1514,8 +1503,8 @@
       <c r="E7" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>117</v>
+      <c r="F7" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1536,11 +1525,11 @@
       <c r="E8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -1560,8 +1549,8 @@
       <c r="E9" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>120</v>
+      <c r="F9" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -1582,9 +1571,10 @@
       <c r="E10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>103</v>
       </c>
+      <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1603,14 +1593,14 @@
       <c r="E11" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1629,7 +1619,7 @@
       <c r="E12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="18" t="s">
         <v>123</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -1653,16 +1643,14 @@
       <c r="E13" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="19" t="s">
         <v>125</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>126</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="K13" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
@@ -1680,14 +1668,13 @@
       <c r="E14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="H14" s="6"/>
-      <c r="K14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
@@ -1705,12 +1692,11 @@
       <c r="E15" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>130</v>
+      <c r="F15" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="K15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
@@ -1728,14 +1714,13 @@
       <c r="E16" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="H16" s="6"/>
-      <c r="K16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
@@ -1753,12 +1738,11 @@
       <c r="E17" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>133</v>
+      <c r="F17" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="K17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
@@ -1776,10 +1760,10 @@
       <c r="E18" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>103</v>
       </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1798,12 +1782,10 @@
       <c r="E19" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="L19" s="6" t="s">
-        <v>108</v>
-      </c>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
@@ -1821,7 +1803,7 @@
       <c r="E20" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
@@ -1841,7 +1823,7 @@
       <c r="E21" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
@@ -1861,18 +1843,16 @@
       <c r="E22" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="H22" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>127</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="n">
@@ -1890,12 +1870,11 @@
       <c r="E23" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="18" t="s">
-        <v>136</v>
+      <c r="F23" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="K23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="n">
@@ -1913,12 +1892,11 @@
       <c r="E24" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>103</v>
       </c>
+      <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="K24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="n">
@@ -1936,7 +1914,7 @@
       <c r="E25" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F25" s="20"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
@@ -1956,14 +1934,14 @@
       <c r="E26" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F26" s="18" t="s">
-        <v>137</v>
+      <c r="F26" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1982,8 +1960,8 @@
       <c r="E27" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F27" s="18" t="s">
-        <v>138</v>
+      <c r="F27" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -2004,8 +1982,8 @@
       <c r="E28" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F28" s="18" t="s">
-        <v>139</v>
+      <c r="F28" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -2026,8 +2004,8 @@
       <c r="E29" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F29" s="18" t="s">
-        <v>140</v>
+      <c r="F29" s="19" t="s">
+        <v>139</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -2048,11 +2026,11 @@
       <c r="E30" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="H30" s="6"/>
     </row>
@@ -2072,8 +2050,8 @@
       <c r="E31" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="18" t="s">
-        <v>143</v>
+      <c r="F31" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -2094,8 +2072,8 @@
       <c r="E32" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F32" s="18" t="s">
-        <v>144</v>
+      <c r="F32" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -2116,32 +2094,28 @@
       <c r="E33" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F33" s="18" t="s">
-        <v>145</v>
+      <c r="F33" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="17">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="H3:H9"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="F10:H10"/>
     <mergeCell ref="H11:H17"/>
-    <mergeCell ref="K13:K17"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:H21"/>
+    <mergeCell ref="F18:H21"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:H25"/>
+    <mergeCell ref="F24:H25"/>
     <mergeCell ref="G26:G29"/>
     <mergeCell ref="H26:H33"/>
     <mergeCell ref="G30:G33"/>
@@ -2163,8 +2137,8 @@
   </sheetPr>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2213,17 +2187,17 @@
       <c r="E2" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>102</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>104</v>
@@ -2245,14 +2219,14 @@
       <c r="E3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>144</v>
+      <c r="F3" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="13" t="s">
-        <v>109</v>
+      <c r="J3" s="14" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2271,14 +2245,14 @@
       <c r="E4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>145</v>
+      <c r="F4" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="15" t="s">
-        <v>112</v>
+      <c r="J4" s="16" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2297,14 +2271,14 @@
       <c r="E5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>143</v>
+      <c r="F5" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="16" t="s">
-        <v>115</v>
+      <c r="J5" s="17" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2323,11 +2297,11 @@
       <c r="E6" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>137</v>
+      <c r="F6" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -2348,8 +2322,8 @@
       <c r="E7" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>138</v>
+      <c r="F7" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -2371,8 +2345,8 @@
       <c r="E8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>140</v>
+      <c r="F8" s="19" t="s">
+        <v>139</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -2394,8 +2368,8 @@
       <c r="E9" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>139</v>
+      <c r="F9" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -2417,8 +2391,8 @@
       <c r="E10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>134</v>
+      <c r="F10" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -2440,8 +2414,8 @@
       <c r="E11" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>136</v>
+      <c r="F11" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2463,7 +2437,7 @@
       <c r="E12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="19" t="s">
         <v>125</v>
       </c>
       <c r="G12" s="6"/>
@@ -2486,15 +2460,13 @@
       <c r="E13" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>133</v>
+      <c r="F13" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>146</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2513,8 +2485,8 @@
       <c r="E14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>131</v>
+      <c r="F14" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -2536,14 +2508,12 @@
       <c r="E15" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="F15" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
@@ -2561,10 +2531,12 @@
       <c r="E16" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
@@ -2584,16 +2556,14 @@
       <c r="E17" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
+      <c r="F17" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
@@ -2611,14 +2581,14 @@
       <c r="E18" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="H18" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I18" s="6"/>
     </row>
@@ -2643,7 +2613,9 @@
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
@@ -2724,15 +2696,15 @@
       <c r="E23" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>117</v>
+      <c r="F23" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2751,8 +2723,8 @@
       <c r="E24" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>116</v>
+      <c r="F24" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -2774,8 +2746,8 @@
       <c r="E25" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>113</v>
+      <c r="F25" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -2797,14 +2769,14 @@
       <c r="E26" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="H26" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="21"/>
@@ -2825,8 +2797,8 @@
       <c r="E27" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>120</v>
+      <c r="F27" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -2848,8 +2820,8 @@
       <c r="E28" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>106</v>
+      <c r="F28" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -2875,7 +2847,7 @@
         <v>103</v>
       </c>
       <c r="G29" s="6"/>
-      <c r="H29" s="23"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2896,7 +2868,7 @@
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="23"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2917,7 +2889,7 @@
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="23"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2938,7 +2910,7 @@
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="23"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2957,26 +2929,27 @@
       <c r="E33" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H33" s="23"/>
+      <c r="H33" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="I33" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="16">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="H2:H12"/>
     <mergeCell ref="I2:I18"/>
     <mergeCell ref="G6:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="G16:H17"/>
     <mergeCell ref="H18:H25"/>
     <mergeCell ref="F19:G22"/>
     <mergeCell ref="I19:I22"/>
@@ -2984,8 +2957,7 @@
     <mergeCell ref="I23:I33"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="H26:H28"/>
-    <mergeCell ref="F29:G32"/>
-    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="F29:H32"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3004,15 +2976,17 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3030,6 +3004,9 @@
         <v>101</v>
       </c>
       <c r="H1" s="6"/>
+      <c r="I1" s="7" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="n">
@@ -3047,16 +3024,19 @@
       <c r="E2" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="K2" s="22"/>
+        <v>122</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="n">
@@ -3074,11 +3054,14 @@
       <c r="E3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>130</v>
+      <c r="F3" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
+      <c r="I3" s="14" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
@@ -3096,13 +3079,16 @@
       <c r="E4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>137</v>
+      <c r="F4" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>102</v>
       </c>
       <c r="H4" s="6"/>
+      <c r="I4" s="16" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
@@ -3120,11 +3106,14 @@
       <c r="E5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>144</v>
+      <c r="F5" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
+      <c r="I5" s="17" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
@@ -3142,12 +3131,12 @@
       <c r="E6" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="19" t="s">
         <v>125</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="K6" s="22"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
@@ -3165,8 +3154,8 @@
       <c r="E7" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>139</v>
+      <c r="F7" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -3187,8 +3176,8 @@
       <c r="E8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>140</v>
+      <c r="F8" s="19" t="s">
+        <v>139</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -3209,8 +3198,8 @@
       <c r="E9" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>141</v>
+      <c r="F9" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -3231,8 +3220,8 @@
       <c r="E10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>145</v>
+      <c r="F10" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -3253,8 +3242,8 @@
       <c r="E11" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>134</v>
+      <c r="F11" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -3275,8 +3264,8 @@
       <c r="E12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>136</v>
+      <c r="F12" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -3297,13 +3286,13 @@
       <c r="E13" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>138</v>
+      <c r="F13" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="20"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
@@ -3321,8 +3310,8 @@
       <c r="E14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>143</v>
+      <c r="F14" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -3348,7 +3337,7 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="K15" s="22"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
@@ -3389,7 +3378,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="K17" s="24"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
@@ -3407,15 +3396,15 @@
       <c r="E18" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="H18" s="6"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
@@ -3433,15 +3422,15 @@
       <c r="E19" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>133</v>
+      <c r="F19" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="J19" s="22"/>
-      <c r="M19" s="22"/>
+      <c r="J19" s="12"/>
+      <c r="M19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
@@ -3459,8 +3448,8 @@
       <c r="E20" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>131</v>
+      <c r="F20" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -3481,7 +3470,7 @@
       <c r="E21" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="18" t="s">
         <v>123</v>
       </c>
       <c r="G21" s="6"/>
@@ -3528,7 +3517,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="K23" s="22"/>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="n">
@@ -3586,17 +3575,17 @@
       <c r="E26" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>118</v>
+      <c r="F26" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
+        <v>107</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="n">
@@ -3614,8 +3603,8 @@
       <c r="E27" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>120</v>
+      <c r="F27" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -3636,11 +3625,11 @@
       <c r="E28" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>117</v>
+      <c r="F28" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H28" s="6"/>
     </row>
@@ -3660,14 +3649,14 @@
       <c r="E29" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>116</v>
+      <c r="F29" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="n">
@@ -3685,8 +3674,8 @@
       <c r="E30" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F30" s="14" t="s">
-        <v>113</v>
+      <c r="F30" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -3707,11 +3696,11 @@
       <c r="E31" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>106</v>
+      <c r="F31" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H31" s="6"/>
     </row>
@@ -3731,8 +3720,8 @@
       <c r="E32" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>110</v>
+      <c r="F32" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -3758,7 +3747,7 @@
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="K33" s="24"/>
+      <c r="K33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/TACKY.xlsx
+++ b/TACKY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TACKY" sheetId="1" state="visible" r:id="rId2"/>
@@ -1324,7 +1324,7 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -2137,8 +2137,8 @@
   </sheetPr>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/TACKY.xlsx
+++ b/TACKY.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="149">
   <si>
     <t xml:space="preserve">Macro</t>
   </si>
@@ -400,37 +400,34 @@
     <t xml:space="preserve">Store</t>
   </si>
   <si>
+    <t xml:space="preserve">a2r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reg. Swap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arithmetic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slt</t>
+  </si>
+  <si>
     <t xml:space="preserve">cvt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a2r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reg. Swap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r2a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">li</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arithmetic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slt</t>
   </si>
   <si>
     <t xml:space="preserve">add</t>
@@ -694,11 +691,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -794,16 +791,19 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1643,12 +1643,10 @@
       <c r="E13" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>126</v>
-      </c>
+      <c r="F13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="K13" s="12"/>
     </row>
@@ -1669,12 +1667,14 @@
         <v>0</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -1714,11 +1714,11 @@
       <c r="E16" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>130</v>
+      <c r="F16" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -1738,8 +1738,8 @@
       <c r="E17" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>132</v>
+      <c r="F17" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1843,11 +1843,11 @@
       <c r="E22" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>133</v>
+      <c r="F22" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>122</v>
@@ -1870,8 +1870,8 @@
       <c r="E23" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>135</v>
+      <c r="F23" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1914,9 +1914,15 @@
       <c r="E25" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="F25" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="n">
@@ -1934,15 +1940,11 @@
       <c r="E26" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>122</v>
-      </c>
+      <c r="F26" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="n">
@@ -1960,8 +1962,8 @@
       <c r="E27" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F27" s="19" t="s">
-        <v>137</v>
+      <c r="F27" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1982,8 +1984,8 @@
       <c r="E28" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F28" s="19" t="s">
-        <v>138</v>
+      <c r="F28" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -2004,8 +2006,8 @@
       <c r="E29" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>139</v>
+      <c r="F29" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -2026,11 +2028,11 @@
       <c r="E30" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="H30" s="6"/>
     </row>
@@ -2050,8 +2052,8 @@
       <c r="E31" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="19" t="s">
-        <v>142</v>
+      <c r="F31" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -2072,8 +2074,8 @@
       <c r="E32" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F32" s="19" t="s">
-        <v>143</v>
+      <c r="F32" s="20" t="s">
+        <v>142</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -2094,14 +2096,14 @@
       <c r="E33" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F33" s="19" t="s">
-        <v>144</v>
+      <c r="F33" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="F2:H2"/>
@@ -2109,20 +2111,22 @@
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="F10:H10"/>
-    <mergeCell ref="H11:H17"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H17"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="F18:H21"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H33"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="H25:H33"/>
     <mergeCell ref="G30:G33"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2144,10 +2148,10 @@
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2187,11 +2191,11 @@
       <c r="E2" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>102</v>
@@ -2219,8 +2223,8 @@
       <c r="E3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>143</v>
+      <c r="F3" s="20" t="s">
+        <v>142</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -2245,8 +2249,8 @@
       <c r="E4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>144</v>
+      <c r="F4" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -2271,8 +2275,8 @@
       <c r="E5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>142</v>
+      <c r="F5" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -2297,11 +2301,11 @@
       <c r="E6" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>136</v>
+      <c r="F6" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -2322,8 +2326,8 @@
       <c r="E7" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>137</v>
+      <c r="F7" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -2345,8 +2349,8 @@
       <c r="E8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>139</v>
+      <c r="F8" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -2368,8 +2372,8 @@
       <c r="E9" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>138</v>
+      <c r="F9" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -2391,8 +2395,8 @@
       <c r="E10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>133</v>
+      <c r="F10" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -2414,8 +2418,8 @@
       <c r="E11" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>135</v>
+      <c r="F11" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2437,8 +2441,8 @@
       <c r="E12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>125</v>
+      <c r="F12" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -2460,11 +2464,11 @@
       <c r="E13" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>132</v>
+      <c r="F13" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -2485,8 +2489,8 @@
       <c r="E14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>130</v>
+      <c r="F14" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -2532,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -2557,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -2588,7 +2592,7 @@
         <v>121</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I18" s="6"/>
     </row>
@@ -2776,7 +2780,7 @@
         <v>118</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="21"/>
@@ -2936,7 +2940,7 @@
         <v>110</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I33" s="6"/>
     </row>
@@ -2961,7 +2965,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2985,7 +2989,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.68"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.88"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -3025,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>122</v>
@@ -3055,7 +3059,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3079,8 +3083,8 @@
       <c r="E4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>136</v>
+      <c r="F4" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>102</v>
@@ -3106,8 +3110,8 @@
       <c r="E5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>143</v>
+      <c r="F5" s="20" t="s">
+        <v>142</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3131,8 +3135,8 @@
       <c r="E6" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>125</v>
+      <c r="F6" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -3154,8 +3158,8 @@
       <c r="E7" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>138</v>
+      <c r="F7" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -3176,8 +3180,8 @@
       <c r="E8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>139</v>
+      <c r="F8" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -3198,8 +3202,8 @@
       <c r="E9" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>140</v>
+      <c r="F9" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -3220,8 +3224,8 @@
       <c r="E10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>144</v>
+      <c r="F10" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -3242,8 +3246,8 @@
       <c r="E11" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>133</v>
+      <c r="F11" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -3264,8 +3268,8 @@
       <c r="E12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>135</v>
+      <c r="F12" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -3286,8 +3290,8 @@
       <c r="E13" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>137</v>
+      <c r="F13" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -3310,8 +3314,8 @@
       <c r="E14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>142</v>
+      <c r="F14" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -3422,11 +3426,11 @@
       <c r="E19" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>132</v>
+      <c r="F19" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H19" s="6"/>
       <c r="J19" s="12"/>
@@ -3448,8 +3452,8 @@
       <c r="E20" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>130</v>
+      <c r="F20" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -3579,7 +3583,7 @@
         <v>117</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>107</v>
@@ -3629,7 +3633,7 @@
         <v>116</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H28" s="6"/>
     </row>
@@ -3700,7 +3704,7 @@
         <v>105</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H31" s="6"/>
     </row>
@@ -3767,7 +3771,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
